--- a/project5-1/Workbook1.xlsx
+++ b/project5-1/Workbook1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alex/2018Spring/CS575/CS575/project6/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alex/2018Spring/CS575/CS575/project5-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
   <si>
     <t>1K</t>
   </si>
@@ -93,8 +93,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -113,7 +117,7 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="19">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -121,6 +125,8 @@
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -128,6 +134,8 @@
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -835,11 +843,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1360183568"/>
-        <c:axId val="1360058064"/>
+        <c:axId val="-87550912"/>
+        <c:axId val="-8285280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1360183568"/>
+        <c:axId val="-87550912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -955,7 +963,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1360058064"/>
+        <c:crossAx val="-8285280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -963,7 +971,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1360058064"/>
+        <c:axId val="-8285280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1094,7 +1102,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1360183568"/>
+        <c:crossAx val="-87550912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1927,11 +1935,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1375845968"/>
-        <c:axId val="1375847328"/>
+        <c:axId val="-87513296"/>
+        <c:axId val="-127437776"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1375845968"/>
+        <c:axId val="-87513296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2047,7 +2055,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1375847328"/>
+        <c:crossAx val="-127437776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2055,7 +2063,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1375847328"/>
+        <c:axId val="-127437776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2186,7 +2194,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1375845968"/>
+        <c:crossAx val="-87513296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2962,11 +2970,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1313691840"/>
-        <c:axId val="1313525632"/>
+        <c:axId val="-8235264"/>
+        <c:axId val="-8231504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1313691840"/>
+        <c:axId val="-8235264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3082,7 +3090,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1313525632"/>
+        <c:crossAx val="-8231504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3090,7 +3098,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1313525632"/>
+        <c:axId val="-8231504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3221,7 +3229,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1313691840"/>
+        <c:crossAx val="-8235264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4054,11 +4062,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1313603232"/>
-        <c:axId val="1312910416"/>
+        <c:axId val="-8186128"/>
+        <c:axId val="-8182368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1313603232"/>
+        <c:axId val="-8186128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4174,7 +4182,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1312910416"/>
+        <c:crossAx val="-8182368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4182,7 +4190,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1312910416"/>
+        <c:axId val="-8182368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4321,7 +4329,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1313603232"/>
+        <c:crossAx val="-8186128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4447,38 +4455,6 @@
               <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
               <a:t>Performance</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
-              <a:t>(local</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
-              <a:t>size</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
-              <a:t>=</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
-              <a:t>32)</a:t>
-            </a:r>
             <a:endParaRPr lang="is-IS"/>
           </a:p>
         </c:rich>
@@ -4524,7 +4500,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$23</c:f>
+              <c:f>Sheet1!$A$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4558,67 +4534,333 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$B$22:$I$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
+            <c:strRef>
+              <c:f>Sheet1!$B$25:$G$25</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1K</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>512K</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
+                  <c:v>1M</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.0</c:v>
+                  <c:v>2M</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.0</c:v>
+                  <c:v>4M</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>64.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>8M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$23:$I$23</c:f>
+              <c:f>Sheet1!$B$26:$G$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1570.919</c:v>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.503</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2231.946</c:v>
+                  <c:v>1368.516</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2741.834</c:v>
+                  <c:v>2324.357</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3045.247</c:v>
+                  <c:v>2893.995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3200.265</c:v>
+                  <c:v>3269.482</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4010.672</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4435.883</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4960.188</c:v>
+                  <c:v>3422.469</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet1!$B$25:$G$25</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1K</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>512K</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1M</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2M</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4M</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$27:$G$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.57</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1991.953</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3070.29</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4102.132</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4659.574</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5446.892</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet1!$B$25:$G$25</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1K</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>512K</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1M</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2M</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4M</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$28:$G$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.717</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2256.891</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3609.764</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5147.701</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6449.894</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6969.92</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet1!$B$25:$G$25</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1K</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>512K</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1M</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2M</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4M</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$29:$G$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.384</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2114.747</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3179.125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4594.478</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5801.006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6383.657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4633,11 +4875,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1313649200"/>
-        <c:axId val="1313651920"/>
+        <c:axId val="-8156768"/>
+        <c:axId val="-8153008"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1313649200"/>
+        <c:axId val="-8156768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4688,23 +4930,6 @@
                   <a:rPr lang="en-US" altLang="zh-CN"/>
                   <a:t>Size</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US"/>
-                  <a:t> </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN"/>
-                  <a:t>(Mega</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US"/>
-                  <a:t> </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN"/>
-                  <a:t>Numbers)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -4775,12 +5000,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1313651920"/>
+        <c:crossAx val="-8153008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1313651920"/>
+        <c:axId val="-8153008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4933,7 +5158,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1313649200"/>
+        <c:crossAx val="-8156768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4945,6 +5170,1804 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Reduction</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Performance</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$25:$G$25</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1K</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>512K</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1M</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2M</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4M</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$26:$G$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.503</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1368.516</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2324.357</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2893.995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3269.482</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3422.469</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$25:$G$25</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1K</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>512K</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1M</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2M</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4M</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$27:$G$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.57</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1991.953</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3070.29</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4102.132</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4659.574</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5446.892</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$25:$G$25</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1K</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>512K</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1M</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2M</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4M</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$28:$G$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.717</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2256.891</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3609.764</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5147.701</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6449.894</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6969.92</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$25:$G$25</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1K</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>512K</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1M</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2M</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4M</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$29:$G$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.384</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2114.747</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3179.125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4594.478</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5801.006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6383.657</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="23842480"/>
+        <c:axId val="-1167008"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="23842480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Array</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Size</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1167008"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1167008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Mega</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Multis</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>and</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Reductions</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Per</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Second</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1000">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.0333333333333333"/>
+              <c:y val="0.139305555555556"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="23842480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Reduction Performance</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1200">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1K</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$26:$A$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$26:$B$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5.503</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.57</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.717</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.384</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>512K</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$26:$A$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$26:$C$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1368.516</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1991.953</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2256.891</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2114.747</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$26:$A$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$26:$D$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2324.357</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3070.29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3609.764</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3179.125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$26:$A$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$26:$E$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2893.995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4102.132</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5147.701</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4594.478</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$26:$A$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$26:$F$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3269.482</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4659.574</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6449.894</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5801.006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$26:$A$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$26:$G$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3422.469</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5446.892</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6969.92</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6383.657</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="50212976"/>
+        <c:axId val="25075152"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="50212976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Local</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Work</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                  <a:t>Size</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="25075152"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="25075152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Mega Multis and Reductions Per Second</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="400">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.0222222222222222"/>
+              <c:y val="0.150601851851852"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="50212976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -5182,6 +7205,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -7691,6 +9794,1038 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -7835,15 +10970,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>650089</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>105874</xdr:rowOff>
+      <xdr:colOff>404142</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>83262</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>242683</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>32440</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>825333</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>9828</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7857,6 +10992,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8128,10 +11323,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H8" zoomScale="164" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:G20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26:G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8406,7 +11601,7 @@
         <v>4446.8990000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>32</v>
       </c>
@@ -8429,7 +11624,7 @@
         <v>6537.1350000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>128</v>
       </c>
@@ -8452,7 +11647,7 @@
         <v>8567.375</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>512</v>
       </c>
@@ -8475,7 +11670,7 @@
         <v>7923.491</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1024</v>
       </c>
@@ -8498,59 +11693,116 @@
         <v>8338.2780000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B22">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
         <v>1</v>
       </c>
-      <c r="C22">
+      <c r="E25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25" t="s">
         <v>2</v>
       </c>
-      <c r="D22">
-        <v>4</v>
-      </c>
-      <c r="E22">
-        <v>6</v>
-      </c>
-      <c r="F22">
-        <v>8</v>
-      </c>
-      <c r="G22">
-        <v>16</v>
-      </c>
-      <c r="H22">
+      <c r="G25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26">
         <v>32</v>
       </c>
-      <c r="I22">
+      <c r="B26">
+        <v>5.5030000000000001</v>
+      </c>
+      <c r="C26">
+        <v>1368.5160000000001</v>
+      </c>
+      <c r="D26">
+        <v>2324.357</v>
+      </c>
+      <c r="E26">
+        <v>2893.9949999999999</v>
+      </c>
+      <c r="F26">
+        <v>3269.482</v>
+      </c>
+      <c r="G26">
+        <v>3422.4690000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27">
         <v>64</v>
       </c>
+      <c r="B27">
+        <v>5.57</v>
+      </c>
+      <c r="C27">
+        <v>1991.953</v>
+      </c>
+      <c r="D27">
+        <v>3070.29</v>
+      </c>
+      <c r="E27">
+        <v>4102.1319999999996</v>
+      </c>
+      <c r="F27">
+        <v>4659.5739999999996</v>
+      </c>
+      <c r="G27">
+        <v>5446.8919999999998</v>
+      </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>32</v>
-      </c>
-      <c r="B23">
-        <v>1570.9190000000001</v>
-      </c>
-      <c r="C23">
-        <v>2231.9459999999999</v>
-      </c>
-      <c r="D23">
-        <v>2741.8339999999998</v>
-      </c>
-      <c r="E23">
-        <v>3045.2469999999998</v>
-      </c>
-      <c r="F23">
-        <v>3200.2649999999999</v>
-      </c>
-      <c r="G23">
-        <v>4010.672</v>
-      </c>
-      <c r="H23">
-        <v>4435.8829999999998</v>
-      </c>
-      <c r="I23">
-        <v>4960.1880000000001</v>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>128</v>
+      </c>
+      <c r="B28">
+        <v>4.7169999999999996</v>
+      </c>
+      <c r="C28">
+        <v>2256.8910000000001</v>
+      </c>
+      <c r="D28">
+        <v>3609.7640000000001</v>
+      </c>
+      <c r="E28">
+        <v>5147.701</v>
+      </c>
+      <c r="F28">
+        <v>6449.8940000000002</v>
+      </c>
+      <c r="G28">
+        <v>6969.92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>256</v>
+      </c>
+      <c r="B29">
+        <v>5.3840000000000003</v>
+      </c>
+      <c r="C29">
+        <v>2114.7469999999998</v>
+      </c>
+      <c r="D29">
+        <v>3179.125</v>
+      </c>
+      <c r="E29">
+        <v>4594.4780000000001</v>
+      </c>
+      <c r="F29">
+        <v>5801.0060000000003</v>
+      </c>
+      <c r="G29">
+        <v>6383.6570000000002</v>
       </c>
     </row>
   </sheetData>
